--- a/library_verificaton/WB.xlsx
+++ b/library_verificaton/WB.xlsx
@@ -15,8 +15,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -46,8 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,12 +361,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="G2" t="n" s="1">
+        <v>43640.51221876157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>589.0</v>
+      </c>
+      <c r="G3" t="n" s="2">
+        <v>43640.51225010417</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
